--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CyperSoft\End-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\BC29_Capstone_NguyenManhLuc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF54A55-072F-46AF-9068-743C346FFFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61DA138-0800-4063-B922-892F8579D5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{218BC98B-08D0-4360-AD74-304C0A214C80}"/>
+    <workbookView xWindow="4110" yWindow="1995" windowWidth="21600" windowHeight="11385" xr2:uid="{218BC98B-08D0-4360-AD74-304C0A214C80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -647,7 +647,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +695,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="16">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>20</v>
@@ -718,7 +718,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="16">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>20</v>
@@ -741,7 +741,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="16">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>20</v>
@@ -787,7 +787,7 @@
         <v>44682</v>
       </c>
       <c r="F6" s="16">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>20</v>
